--- a/20190921 파이썬교육.xlsx
+++ b/20190921 파이썬교육.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="파이썬 교육" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>&lt;강연자 소개&gt;</t>
   </si>
@@ -951,12 +946,120 @@
   <si>
     <t>https://colab.research.google.com/drive/1pRweirqTAPfvSBT8Besrdt71sVKFSBVn#scrollTo=xWrTmcveJMa2</t>
   </si>
+  <si>
+    <t xml:space="preserve">앞에 coffee를 하면 시도명에 커피숍만 골라서 보여준다. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">시군구별로 커피숍 이름을 알고 싶을 때 이렇게 출력한다. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">경도와 위도는 이렇게 뽑는다. 왼쪽 위가 서울. 아래쪽에 있는 건 부산. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">괄호안에 :1000인건 처음부터 1000개의 가계를 점찍는다는 것. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울만 따로 보기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>먼저df_seoul이라는 변수에 시도명이 서울인 것을 복사해서 넣는다</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shape로 행과 열 수를 파악하면 대략 40만개가 있다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>isnull로 결측치를 보니 거의 0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그다음엔 서울에서 상권업종별로 몇 개가 있는지 수를  value_count를 통해 본다 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트의요약을 보려면 np.object를 하면 되고</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이걸 요약해서 보려면 describe를 써야 한다. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 방식으로 위도와 경도를 요약본으로 보면 아래와 같다</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">시각화 해보면 일단 대분류명으로 리스트를 만들면 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SNS.COUNTPLOT으로 표를 만들고 안에 데이터를 넣는다 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">X축과 Y축을 무엇으로 하느냐에 따라 다른 모양이 나온다 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">커피 이외에도 이렇게 패스트푸드점의 데이터도 가져올 수 있다. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fast_food에 패스트 푸드라는 글이 있는 음식점만 골라내면</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shape로 총 개수를 알 수 있다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">컬럼만 뽑으면 이렇게 정보가 나오는데 여기서 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호명이라는 것을 골라서 unique만 뽑아보자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식점 중에서 이름이 하나 있는 것들은 이렇게 정보가 나온다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">본격적으로 위치를 분석해보자 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 소문자로 다 만들어주고</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 중에서 이디야라는 것이 들어있는 리스트를 뽑는다.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">상호명 소문자 컬럼을 이용해서 스타벅스라는 상호가 있는 것만 가져온다. 설명과 같이 |는 or 이어서 둘 중 하나만 있어도 출력된다. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스타벅스와 이디야 둘다 같은 방식으로 한다. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">조금 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1074,6 +1177,15 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1116,7 +1228,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1156,6 +1268,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
@@ -1199,7 +1314,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1237,7 +1352,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1275,7 +1390,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1313,7 +1428,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1351,7 +1466,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1389,7 +1504,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1427,7 +1542,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1465,7 +1580,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1503,7 +1618,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1541,7 +1656,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1579,7 +1694,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1617,7 +1732,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1655,7 +1770,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1693,7 +1808,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1731,7 +1846,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1769,7 +1884,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1807,7 +1922,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1845,7 +1960,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1883,7 +1998,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1921,7 +2036,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1959,7 +2074,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1997,7 +2112,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2035,7 +2150,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2073,7 +2188,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2111,7 +2226,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2149,7 +2264,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2187,7 +2302,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2225,7 +2340,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2263,7 +2378,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2301,7 +2416,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2339,7 +2454,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2377,7 +2492,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2415,7 +2530,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2453,7 +2568,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2491,7 +2606,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2529,7 +2644,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2567,7 +2682,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2605,7 +2720,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2643,7 +2758,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print"/>
         <a:srcRect r="1851" b="54325"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2680,7 +2795,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print"/>
         <a:srcRect t="43575" r="-2187"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2717,7 +2832,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2755,7 +2870,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2793,7 +2908,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2831,7 +2946,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2869,7 +2984,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2907,7 +3022,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2945,7 +3060,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2983,7 +3098,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3021,7 +3136,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3059,7 +3174,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3097,7 +3212,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3135,7 +3250,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3173,7 +3288,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3211,7 +3326,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3249,7 +3364,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3287,7 +3402,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3325,7 +3440,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3363,7 +3478,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3401,7 +3516,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57" cstate="print"/>
         <a:srcRect b="55602"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -3438,7 +3553,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3476,7 +3591,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3514,7 +3629,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3552,7 +3667,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3590,7 +3705,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3628,7 +3743,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3666,7 +3781,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3704,7 +3819,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3742,7 +3857,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3780,7 +3895,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3818,7 +3933,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3856,7 +3971,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3894,7 +4009,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3932,7 +4047,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3970,7 +4085,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4008,7 +4123,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4046,7 +4161,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4084,7 +4199,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4122,7 +4237,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4160,7 +4275,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4198,7 +4313,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4236,7 +4351,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4274,7 +4389,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4312,7 +4427,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4350,7 +4465,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4388,7 +4503,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4426,7 +4541,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4464,7 +4579,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4502,7 +4617,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4540,7 +4655,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4578,7 +4693,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4591,6 +4706,617 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1066</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1074</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="971550" y="223618425"/>
+          <a:ext cx="8124825" cy="1695450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1077</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1086</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="971550" y="225923475"/>
+          <a:ext cx="7372350" cy="1933575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1077</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>1083</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10296525" y="225961575"/>
+          <a:ext cx="4019550" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1089</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>1106</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="971550" y="228438075"/>
+          <a:ext cx="5257800" cy="3695700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1110</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>1133</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1066800" y="232867200"/>
+          <a:ext cx="6886575" cy="4933950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1136</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>1162</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1030" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1000125" y="238344075"/>
+          <a:ext cx="8296275" cy="5486400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>1182</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1031" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="971550" y="244363875"/>
+          <a:ext cx="5572125" cy="3705225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1185</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1205</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1032" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="971550" y="248554875"/>
+          <a:ext cx="7991475" cy="4257675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1208</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>1237</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1033" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1028700" y="253422150"/>
+          <a:ext cx="5638800" cy="6191250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1240</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>1263</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1034" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1038225" y="260194425"/>
+          <a:ext cx="8324850" cy="4819650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1267</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>1300</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1036" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="971550" y="265823700"/>
+          <a:ext cx="8467725" cy="6858000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1303</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>1329</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1037" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="990600" y="273338925"/>
+          <a:ext cx="8458200" cy="5419725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1332</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>1337</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1038" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1009650" y="279463500"/>
+          <a:ext cx="8353425" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4641,7 +5367,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4676,7 +5402,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4853,310 +5579,310 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AA1064"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:AA1332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1045" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1070" sqref="B1070"/>
+    <sheetView tabSelected="1" topLeftCell="A1321" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1349" sqref="I1348:I1349"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2">
       <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2">
       <c r="B13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2">
       <c r="B15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="B37" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="B38" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3">
       <c r="B50" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3">
       <c r="B51" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="20.25">
       <c r="B52" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="20.25">
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="B55" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="B56" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="B57" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="B60" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="B61" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3">
       <c r="B63" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:2">
       <c r="B77" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:2">
       <c r="B85" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:2">
       <c r="B121" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:2">
       <c r="B122" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:2">
       <c r="B144" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:2">
       <c r="B164" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:2">
       <c r="B165" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15">
       <c r="A177" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B177" s="2"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15">
       <c r="B179" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15">
       <c r="O181" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15">
       <c r="O182" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15">
       <c r="O185" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15">
       <c r="O187" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15">
       <c r="O189" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15">
       <c r="O190" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:2">
       <c r="B213" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:2">
       <c r="B214" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="232" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="10:10">
       <c r="J232" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:2">
       <c r="B243" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" ht="20.25">
       <c r="A269" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2">
       <c r="B270" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2">
       <c r="B273" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2">
       <c r="B274" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2">
       <c r="A277" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B277" s="2"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2">
       <c r="B278" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2">
       <c r="B279" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:2">
       <c r="B293" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:2">
       <c r="B299" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="307" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:7">
       <c r="B307" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="313" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="2:7">
       <c r="B313" t="s">
         <v>53</v>
       </c>
@@ -5164,13 +5890,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:18">
       <c r="A326" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B326" s="2"/>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:18">
       <c r="B327" t="s">
         <v>56</v>
       </c>
@@ -5184,17 +5910,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:2">
       <c r="B337" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:2">
       <c r="B344" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="354" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:13">
       <c r="B354" t="s">
         <v>62</v>
       </c>
@@ -5202,12 +5928,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:18">
       <c r="A371" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:18">
       <c r="B372" t="s">
         <v>67</v>
       </c>
@@ -5215,7 +5941,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:18">
       <c r="B373" t="s">
         <v>65</v>
       </c>
@@ -5223,17 +5949,17 @@
         <v>66</v>
       </c>
     </row>
-    <row r="385" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:27">
       <c r="B385" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="386" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:27">
       <c r="B386" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="392" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:27">
       <c r="B392" s="9" t="s">
         <v>75</v>
       </c>
@@ -5244,54 +5970,54 @@
         <v>73</v>
       </c>
     </row>
-    <row r="395" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:27">
       <c r="AA395" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="398" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:27">
       <c r="V398" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2">
       <c r="A406" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B406" s="10"/>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2">
       <c r="B407" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2">
       <c r="B408" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:14">
       <c r="A421" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B421" s="2"/>
     </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:14">
       <c r="B422" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:14">
       <c r="B424" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:14">
       <c r="N425" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="440" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="440" spans="2:13">
       <c r="B440" t="s">
         <v>84</v>
       </c>
@@ -5302,7 +6028,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6">
       <c r="A452" s="11" t="s">
         <v>87</v>
       </c>
@@ -5312,7 +6038,7 @@
       <c r="E452" s="2"/>
       <c r="F452" s="2"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6">
       <c r="A453" s="2"/>
       <c r="B453" s="2" t="s">
         <v>88</v>
@@ -5322,72 +6048,72 @@
       <c r="E453" s="2"/>
       <c r="F453" s="2"/>
     </row>
-    <row r="481" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="2:2">
       <c r="B481" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="488" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="2:2">
       <c r="B488" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="508" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="508" spans="2:2">
       <c r="B508" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="515" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="515" spans="2:10">
       <c r="B515" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="517" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="517" spans="2:10">
       <c r="J517" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="528" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="528" spans="2:10">
       <c r="B528" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="540" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="540" spans="2:2">
       <c r="B540" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="547" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="547" spans="2:8">
       <c r="B547" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="548" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="548" spans="2:8">
       <c r="B548" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="560" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="560" spans="2:8">
       <c r="H560" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:8">
       <c r="H561" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="570" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:8">
       <c r="A570" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:8">
       <c r="B571" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="603" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="603" spans="2:7">
       <c r="B603" t="s">
         <v>100</v>
       </c>
@@ -5395,13 +6121,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:7">
       <c r="A617" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B617" s="2"/>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:7">
       <c r="B618" s="1" t="s">
         <v>102</v>
       </c>
@@ -5409,144 +6135,144 @@
         <v>105</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:7">
       <c r="B619" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:7">
       <c r="A622" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
     </row>
-    <row r="624" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:7" ht="17.25">
       <c r="B624" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="625" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="2:11">
       <c r="B625" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="627" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="2:11">
       <c r="B627" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="628" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="2:11">
       <c r="B628" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="630" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="2:11">
       <c r="B630" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="633" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="2:11">
       <c r="K633" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="634" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="2:11">
       <c r="K634" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="635" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="2:11">
       <c r="K635" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="663" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="663" spans="2:2">
       <c r="B663" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="664" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="664" spans="2:2">
       <c r="B664" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="666" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="666" spans="2:2">
       <c r="B666" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="674" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="674" spans="2:8">
       <c r="B674" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="683" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="683" spans="2:8">
       <c r="H683" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="684" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="684" spans="2:8">
       <c r="H684" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="689" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="689" spans="2:2">
       <c r="B689" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="703" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="703" spans="2:2">
       <c r="B703" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="705" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="705" spans="2:2">
       <c r="B705" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="730" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="730" spans="2:2">
       <c r="B730" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="731" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="731" spans="2:2">
       <c r="B731" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="753" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="753" spans="2:22">
       <c r="V753" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="754" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="754" spans="2:22">
       <c r="B754" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="787" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="787" spans="2:6">
       <c r="B787" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="791" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="791" spans="2:6">
       <c r="F791" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="797" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="797" spans="2:6">
       <c r="B797" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="805" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="805" spans="8:8">
       <c r="H805" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="826" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="826" spans="2:19">
       <c r="B826" t="s">
         <v>135</v>
       </c>
@@ -5554,30 +6280,30 @@
         <v>134</v>
       </c>
     </row>
-    <row r="851" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="851" spans="2:2">
       <c r="B851" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="867" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="867" spans="2:2">
       <c r="B867" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="891" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="891" spans="2:8">
       <c r="B891" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="892" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="892" spans="2:8">
       <c r="H892" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="903" spans="2:2" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="903" spans="2:2" ht="23.25">
       <c r="B903" s="7"/>
     </row>
-    <row r="925" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="925" spans="2:15">
       <c r="B925" t="s">
         <v>140</v>
       </c>
@@ -5585,47 +6311,47 @@
         <v>141</v>
       </c>
     </row>
-    <row r="947" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="947" spans="2:2">
       <c r="B947" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="957" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="957" spans="2:2">
       <c r="B957" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="963" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="963" spans="2:12">
       <c r="B963" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="965" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="965" spans="2:12">
       <c r="L965" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="987" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="987" spans="2:2">
       <c r="B987" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="994" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="994" spans="2:2">
       <c r="B994" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="1006" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1006" spans="2:2">
       <c r="B1006" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="1015" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1015" spans="2:9">
       <c r="B1015" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="1024" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1024" spans="2:9">
       <c r="B1024" t="s">
         <v>150</v>
       </c>
@@ -5633,24 +6359,163 @@
         <v>151</v>
       </c>
     </row>
-    <row r="1042" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1042" spans="2:2">
       <c r="B1042" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="1053" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1053" spans="2:2">
       <c r="B1053" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="1063" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1063" spans="2:2">
       <c r="B1063" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="1064" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1064" spans="2:2">
       <c r="B1064" s="1" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="1066" spans="2:2">
+      <c r="B1066" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="1077" spans="2:2">
+      <c r="B1077" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="1089" spans="2:9">
+      <c r="B1089" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="1093" spans="2:9">
+      <c r="I1093" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="1110" spans="2:12">
+      <c r="B1110" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="1114" spans="2:12">
+      <c r="L1114" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="1115" spans="2:12">
+      <c r="L1115" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1119" spans="2:12">
+      <c r="L1119" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1136" spans="2:2">
+      <c r="B1136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="1151" spans="14:14">
+      <c r="N1151" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="1152" spans="14:14">
+      <c r="N1152" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="1165" spans="2:2">
+      <c r="B1165" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1185" spans="2:2">
+      <c r="B1185" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="1186" spans="2:2">
+      <c r="B1186" s="13"/>
+    </row>
+    <row r="1208" spans="2:10">
+      <c r="B1208" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1211" spans="2:10">
+      <c r="J1211" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="1240" spans="2:14">
+      <c r="B1240" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="1245" spans="2:14">
+      <c r="N1245" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="1247" spans="2:14">
+      <c r="N1247" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="1253" spans="14:14">
+      <c r="N1253" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1254" spans="14:14">
+      <c r="N1254" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="1258" spans="14:14">
+      <c r="N1258" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:14">
+      <c r="A1266" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1266" s="2"/>
+    </row>
+    <row r="1275" spans="1:14">
+      <c r="N1275" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:14">
+      <c r="N1279" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="1303" spans="2:14">
+      <c r="B1303" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="1308" spans="2:14">
+      <c r="N1308" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1332" spans="2:2">
+      <c r="B1332" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
